--- a/testcases/Testcases.xlsx
+++ b/testcases/Testcases.xlsx
@@ -24,7 +24,33 @@
     <t>Testcases</t>
   </si>
   <si>
-    <t>Scenario: Verify the home page labels
+    <t>Scenario: Member is sucessfully to application
+Given member is on login page
+And click on "Sign in securely" button
+And enter "username" into textbox
+And enter "password" into textbox
+And click on "Sign In" button
+Then navigated sucessfully to the homepage</t>
+  </si>
+  <si>
+    <t>Scenario: verify registration flow 
+Given member is on login page
+And click on "Sign in securely" button
+And click on create your Amazon account
+And enter "Your name"
+And enter "Mobile Number"
+And enter "Password"</t>
+  </si>
+  <si>
+    <t>Scenario: verify create business account details 
+Given member is on login page
+And click on "Sign in securely" button
+And click on "create your Amazon account"
+And click on "create a free bussiness account"
+And enter "Email Address" into textbox</t>
+  </si>
+  <si>
+    <t>Scenario Outline: Verify the home page labels
 Given member is home page
 And navigated sucessfully to the homepage
 Then "&lt;labels&gt;" are verfied sucessfully 
@@ -34,32 +60,6 @@
 |Mobiles|
 |Electronics|
 |Sell|</t>
-  </si>
-  <si>
-    <t>Scenario: Member is sucessfully to application
-Given member is on login page
-And click on "Sign in securely" button
-And enter "username" into textbox
-And enter "password" into textbox
-And click on "Sign In" button
-Then navigated sucessfully to the homepage</t>
-  </si>
-  <si>
-    <t>Scenario: verify registration flow 
-Given member is on login page
-And click on "Sign in securely" button
-And click on create your Amazon account
-And enter "Your name"
-And enter "Mobile Number"
-And enter "Password"</t>
-  </si>
-  <si>
-    <t>Scenario: verify create business account details 
-Given member is on login page
-And click on "Sign in securely" button
-And click on "create your Amazon account"
-And click on "create a free bussiness account"
-And enter "Email Address" into textbox</t>
   </si>
 </sst>
 </file>
@@ -403,8 +403,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:B5"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A3" workbookViewId="0">
-      <selection activeCell="G5" sqref="G5"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="F3" sqref="F3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -420,12 +420,12 @@
         <v>1</v>
       </c>
     </row>
-    <row r="2" spans="1:2" ht="165" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:2" ht="180" x14ac:dyDescent="0.25">
       <c r="A2">
         <v>1</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>2</v>
+        <v>5</v>
       </c>
     </row>
     <row r="3" spans="1:2" ht="111" customHeight="1" x14ac:dyDescent="0.25">
@@ -433,7 +433,7 @@
         <v>2</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="4" spans="1:2" ht="105" x14ac:dyDescent="0.25">
@@ -441,7 +441,7 @@
         <v>3</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="5" spans="1:2" ht="105" x14ac:dyDescent="0.25">
@@ -449,7 +449,7 @@
         <v>4</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
   </sheetData>

--- a/testcases/Testcases.xlsx
+++ b/testcases/Testcases.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6" uniqueCount="6">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4" uniqueCount="4">
   <si>
     <t>Sl No</t>
   </si>
@@ -24,42 +24,29 @@
     <t>Testcases</t>
   </si>
   <si>
-    <t>Scenario: Member is sucessfully to application
-Given member is on login page
-And click on "Sign in securely" button
-And enter "username" into textbox
-And enter "password" into textbox
-And click on "Sign In" button
-Then navigated sucessfully to the homepage</t>
-  </si>
-  <si>
-    <t>Scenario: verify registration flow 
-Given member is on login page
-And click on "Sign in securely" button
-And click on create your Amazon account
-And enter "Your name"
-And enter "Mobile Number"
-And enter "Password"</t>
-  </si>
-  <si>
-    <t>Scenario: verify create business account details 
-Given member is on login page
-And click on "Sign in securely" button
-And click on "create your Amazon account"
-And click on "create a free bussiness account"
-And enter "Email Address" into textbox</t>
-  </si>
-  <si>
     <t>Scenario Outline: Verify the home page labels
 Given member is home page
 And navigated sucessfully to the homepage
 Then "&lt;labels&gt;" are verfied sucessfully 
 Examples:
-|Labels|
-|Amazon miniTV|
-|Mobiles|
-|Electronics|
-|Sell|</t>
+|Test your front-end against a real API|
+|Fake data|
+|Real responses|
+|Always-on|
+|Request|
+|Response|</t>
+  </si>
+  <si>
+    <t>Given member is on home page
+And navigated to "home page" page successfully
+And click on "List users" link
+And "/api/users?page=2" is verified sucessfully
+And click on "Single user" link
+And "/api/users/2" is verified sucessfully
+And click on "Single user not found" link
+And "/api/users/23" is verified sucessfully
+And click on "List &lt;resource&gt;" link
+And "/api/unknown" is verified sucessfully</t>
   </si>
 </sst>
 </file>
@@ -403,8 +390,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:B5"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F3" sqref="F3"/>
+    <sheetView tabSelected="1" topLeftCell="A3" workbookViewId="0">
+      <selection activeCell="B19" sqref="B19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -420,12 +407,12 @@
         <v>1</v>
       </c>
     </row>
-    <row r="2" spans="1:2" ht="180" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:2" ht="195" x14ac:dyDescent="0.25">
       <c r="A2">
         <v>1</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>5</v>
+        <v>2</v>
       </c>
     </row>
     <row r="3" spans="1:2" ht="111" customHeight="1" x14ac:dyDescent="0.25">
@@ -433,24 +420,14 @@
         <v>2</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
-    <row r="4" spans="1:2" ht="105" x14ac:dyDescent="0.25">
-      <c r="A4">
-        <v>3</v>
-      </c>
-      <c r="B4" s="1" t="s">
-        <v>3</v>
-      </c>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="B4" s="1"/>
     </row>
-    <row r="5" spans="1:2" ht="105" x14ac:dyDescent="0.25">
-      <c r="A5">
-        <v>4</v>
-      </c>
-      <c r="B5" s="1" t="s">
-        <v>4</v>
-      </c>
+    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="B5" s="1"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
